--- a/src/test/TestData/Mini Project.xlsx
+++ b/src/test/TestData/Mini Project.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AC919F7-409A-4885-BFD0-A9DDB62B4D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B85600-0764-4C35-8BBB-F28CCD8C51D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{4FF83F8E-246F-49AF-B450-389158EB3DB6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4FF83F8E-246F-49AF-B450-389158EB3DB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>Test case</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Test summary</t>
   </si>
   <si>
-    <t>Test steps</t>
-  </si>
-  <si>
     <t>Test Data</t>
   </si>
   <si>
@@ -70,6 +67,36 @@
   </si>
   <si>
     <t xml:space="preserve">All options are displayed and clickable </t>
+  </si>
+  <si>
+    <t>MA-02</t>
+  </si>
+  <si>
+    <t>Successfully login</t>
+  </si>
+  <si>
+    <t>1.Launch the browser 2.Navigate to url 3.Successful login</t>
+  </si>
+  <si>
+    <t>Test steps+D1:H6</t>
+  </si>
+  <si>
+    <t>rahul,rahul@2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Launch the application and  successfully login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Launch the application and  unsuccessfully login </t>
+  </si>
+  <si>
+    <t>1.Launch the browser 2.Navigate to url 3.unsuccessful login</t>
+  </si>
+  <si>
+    <t>rahul,rahul</t>
+  </si>
+  <si>
+    <t>Unsuccessfully login</t>
   </si>
 </sst>
 </file>
@@ -446,21 +473,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B947FD06-45CB-4E76-9222-7BB0E45B931F}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
@@ -474,44 +502,93 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
